--- a/FodderBeat/RawDatafiles/FBcanopy.xlsx
+++ b/FodderBeat/RawDatafiles/FBcanopy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Rainshelter\Fodderbeet 2016-2017\Greenseeker &amp; Sunscan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\CropWaterAnalysis\FodderBeat\RawDatafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NDVI" sheetId="2" r:id="rId1"/>
@@ -25,24 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="13">
   <si>
-    <t>Dry</t>
+    <t>Irrigation</t>
   </si>
   <si>
-    <t>Irrig</t>
+    <t>Nitrogen</t>
   </si>
   <si>
-    <t>0N</t>
+    <t>Block</t>
   </si>
   <si>
-    <t>50N</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>300N</t>
+    <t>Dryland</t>
   </si>
   <si>
-    <t>Row Labels</t>
+    <t>Irrigated</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -105,20 +126,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,2161 +416,2199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>2</v>
-      </c>
-      <c r="L3" s="3">
-        <v>3</v>
-      </c>
-      <c r="M3" s="3">
-        <v>4</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3">
-        <v>2</v>
-      </c>
-      <c r="P3" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>4</v>
-      </c>
-      <c r="R3" s="3">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3">
-        <v>2</v>
-      </c>
-      <c r="T3" s="3">
-        <v>3</v>
-      </c>
-      <c r="U3" s="3">
-        <v>4</v>
-      </c>
-      <c r="V3" s="3">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3">
-        <v>2</v>
-      </c>
-      <c r="X3" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>42690</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="3">
         <v>2.4477544699373269E-4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="3">
         <v>8.7566323213282993E-3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D5" s="3">
         <v>3.2292742149795154E-3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="3">
         <v>1.5065526986633736E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F5" s="3">
         <v>6.7150381372608368E-3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G5" s="3">
         <v>7.0022262279278175E-3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H5" s="3">
         <v>1.0116862279636837E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I5" s="3">
         <v>9.5708627887173357E-3</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J5" s="3">
         <v>1.2328387108673794E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K5" s="3">
         <v>-2.7748604384818798E-3</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L5" s="3">
         <v>6.2420293897624806E-3</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M5" s="3">
         <v>7.6783347698699917E-3</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N5" s="3">
         <v>7.5092397115456419E-3</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O5" s="3">
         <v>5.0881119054291164E-3</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P5" s="3">
         <v>9.9827004143357243E-3</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q5" s="3">
         <v>1.0005824146248527E-2</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R5" s="3">
         <v>1.5222547267279483E-2</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S5" s="3">
         <v>1.1351710088168186E-2</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T5" s="3">
         <v>1.3080619686093529E-2</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U5" s="3">
         <v>1.2402155130602537E-2</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V5" s="3">
         <v>-1.018120089020774E-3</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W5" s="3">
         <v>3.9995340588818897E-3</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X5" s="3">
         <v>1.0372074523710575E-2</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y5" s="3">
         <v>1.9036548307443901E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>42698</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="3">
         <v>1.9584112925916684E-2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="3">
         <v>5.0281126472469989E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="3">
         <v>1.8471105332316096E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="3">
         <v>4.5464797002378612E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F6" s="3">
         <v>3.3535469606134877E-2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G6" s="3">
         <v>4.19598342907938E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H6" s="3">
         <v>6.5347414494613038E-2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I6" s="3">
         <v>4.441235419325032E-2</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J6" s="3">
         <v>4.9099880174340554E-2</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K6" s="3">
         <v>9.8659400797949104E-3</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L6" s="3">
         <v>2.7766004690211798E-2</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M6" s="3">
         <v>2.2677423928970125E-2</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N6" s="3">
         <v>9.2731099631083932E-2</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O6" s="3">
         <v>2.4258994491991349E-2</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P6" s="3">
         <v>0.10209854515528742</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q6" s="3">
         <v>7.0054021333753547E-2</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R6" s="3">
         <v>0.1202061093899922</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S6" s="3">
         <v>0.13472227463876948</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T6" s="3">
         <v>2.3262409785726756E-2</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U6" s="3">
         <v>0.10250742037420414</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V6" s="3">
         <v>0.10000746475425693</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W6" s="3">
         <v>5.1845128824747344E-2</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X6" s="3">
         <v>9.5714268350078402E-2</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y6" s="3">
         <v>2.8035358123186523E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>42703</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="3">
         <v>5.2603332325912279E-2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="3">
         <v>9.4368196746631189E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="3">
         <v>4.7036809405236038E-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="3">
         <v>8.6061162934917487E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="3">
         <v>0.1243667291562509</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="3">
         <v>8.1812916883829703E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="3">
         <v>0.1092961214919439</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="3">
         <v>7.8247318695932128E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J7" s="3">
         <v>8.3316986001162593E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K7" s="3">
         <v>3.4481135020878899E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L7" s="3">
         <v>0.10353908566387048</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M7" s="3">
         <v>7.0855754796276357E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N7" s="3">
         <v>7.0792954494679608E-2</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O7" s="3">
         <v>8.7198470427320027E-2</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P7" s="3">
         <v>9.8184853957353255E-2</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q7" s="3">
         <v>6.4275829201590695E-2</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R7" s="3">
         <v>8.802169033691179E-2</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S7" s="3">
         <v>0.12956710831291557</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T7" s="3">
         <v>9.4376725273205064E-2</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U7" s="3">
         <v>7.3368324930858542E-2</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V7" s="3">
         <v>6.6607518499903012E-2</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W7" s="3">
         <v>0.10980909879062813</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X7" s="3">
         <v>8.4897251648440308E-2</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y7" s="3">
         <v>3.4368495685460486E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>42712</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="3">
         <v>0.33664190609577233</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="3">
         <v>0.43551261155488219</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="3">
         <v>0.33563383105552408</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="3">
         <v>0.35964746150091109</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="3">
         <v>0.5390871885821138</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="3">
         <v>0.36657944957098193</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="3">
         <v>0.43677405156053456</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="3">
         <v>0.39326287813488187</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J8" s="3">
         <v>0.39839506362210597</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K8" s="3">
         <v>0.30623029970350901</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L8" s="3">
         <v>0.49184032641113251</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M8" s="3">
         <v>0.39727103287998561</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N8" s="3">
         <v>0.63209699355541726</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O8" s="3">
         <v>0.63186979198685178</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P8" s="3">
         <v>0.68985698826898756</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q8" s="3">
         <v>0.63638095422359586</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R8" s="3">
         <v>0.69553949905707535</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S8" s="3">
         <v>0.69753988111788567</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T8" s="3">
         <v>0.67033335859962073</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U8" s="3">
         <v>0.61402404901659546</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V8" s="3">
         <v>0.64537332795328406</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W8" s="3">
         <v>0.62913726150211324</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X8" s="3">
         <v>0.61116328637949635</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y8" s="3">
         <v>0.47227320461135153</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>42718</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="3">
         <v>0.38588692527960405</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="3">
         <v>0.47949860009286799</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="3">
         <v>0.38278337340324303</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="3">
         <v>0.41585587143500574</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="3">
         <v>0.52945940496187371</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="3">
         <v>0.38573921119254634</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="3">
         <v>0.4918606296285809</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="3">
         <v>0.45519705927834514</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J9" s="3">
         <v>0.48332701152730578</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="3">
         <v>0.35426228405543159</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="3">
         <v>0.51440964830191827</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="3">
         <v>0.46042405810170023</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N9" s="3">
         <v>0.57137333852275562</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="3">
         <v>0.62213453997898471</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P9" s="3">
         <v>0.65632278361273722</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q9" s="3">
         <v>0.59217723563074598</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R9" s="3">
         <v>0.6467097480434858</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S9" s="3">
         <v>0.67327971187863689</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T9" s="3">
         <v>0.66219773234756185</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U9" s="3">
         <v>0.61658515234367905</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V9" s="3">
         <v>0.61624880343370214</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W9" s="3">
         <v>0.62736993424664811</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X9" s="3">
         <v>0.64929190672573089</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y9" s="3">
         <v>0.49609971246079843</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>42723</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="3">
         <v>0.45967820161090772</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C10" s="3">
         <v>0.52609685692383201</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="3">
         <v>0.46909617811237991</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="3">
         <v>0.50217561723526272</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="3">
         <v>0.5620792803190221</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="3">
         <v>0.4369918669944694</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="3">
         <v>0.54612983564869477</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="3">
         <v>0.54034474165941582</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J10" s="3">
         <v>0.55760410380185854</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K10" s="3">
         <v>0.4376878604000069</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L10" s="3">
         <v>0.57372500895866618</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M10" s="3">
         <v>0.50393651926980754</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N10" s="3">
         <v>0.60093202832431691</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O10" s="3">
         <v>0.63157131407439226</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P10" s="3">
         <v>0.69209612319458458</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q10" s="3">
         <v>0.66205256431499804</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R10" s="3">
         <v>0.68686477105771682</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S10" s="3">
         <v>0.71843987013970567</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T10" s="3">
         <v>0.71560221344061314</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U10" s="3">
         <v>0.69506670081300537</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V10" s="3">
         <v>0.71896186449787303</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W10" s="3">
         <v>0.67523688051083108</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X10" s="3">
         <v>0.70377978563568566</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y10" s="3">
         <v>0.63431616395612467</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>42733</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="3">
         <v>0.51776821565468556</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="3">
         <v>0.53234935783539239</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="3">
         <v>0.4728787110722058</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="3">
         <v>0.53513746114108807</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="3">
         <v>0.59078498863657336</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="3">
         <v>0.48165509508858462</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="3">
         <v>0.56042635752058478</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="3">
         <v>0.58451096102062416</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J11" s="3">
         <v>0.58631523947955344</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K11" s="3">
         <v>0.46747757531995465</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L11" s="3">
         <v>0.60543238641534858</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M11" s="3">
         <v>0.55613455789082233</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N11" s="3">
         <v>0.68101524782123235</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O11" s="3">
         <v>0.70604341000729109</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P11" s="3">
         <v>0.76104642885116136</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q11" s="3">
         <v>0.74096935379007256</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R11" s="3">
         <v>0.78548692079527693</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S11" s="3">
         <v>0.76318424305943267</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T11" s="3">
         <v>0.78050650544733546</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U11" s="3">
         <v>0.78431346321514672</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V11" s="3">
         <v>0.80026970276854204</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W11" s="3">
         <v>0.76478643498628507</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X11" s="3">
         <v>0.79442306296164511</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y11" s="3">
         <v>0.78445715139399919</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>42740</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B12" s="3">
         <v>0.45487080764487142</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C12" s="3">
         <v>0.48944827225656751</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D12" s="3">
         <v>0.41222823068558651</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="3">
         <v>0.4888595567383921</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="3">
         <v>0.5212867713134296</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="3">
         <v>0.43166822182948839</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="3">
         <v>0.48977072466458266</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="3">
         <v>0.5580658563140577</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J12" s="3">
         <v>0.54257715261763551</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K12" s="3">
         <v>0.4175406782680085</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L12" s="3">
         <v>0.53227037816449785</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M12" s="3">
         <v>0.55666135455865684</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N12" s="3">
         <v>0.71713615892805638</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O12" s="3">
         <v>0.72477758668461423</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P12" s="3">
         <v>0.77067832200414332</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q12" s="3">
         <v>0.76178621396791391</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R12" s="3">
         <v>0.81340110629873064</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S12" s="3">
         <v>0.81237926126264048</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T12" s="3">
         <v>0.78396827560595805</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U12" s="3">
         <v>0.78810421331145974</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V12" s="3">
         <v>0.85504725010941052</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W12" s="3">
         <v>0.80108930531659728</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X12" s="3">
         <v>0.85343214822778757</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y12" s="3">
         <v>0.82447314923515436</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>42746</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B13" s="3">
         <v>0.45438222482533763</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="3">
         <v>0.46688415562419056</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="3">
         <v>0.42371611972869494</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="3">
         <v>0.50236791571502726</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="3">
         <v>0.48999561464259267</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="3">
         <v>0.44162141955605766</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="3">
         <v>0.50421032515887965</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="3">
         <v>0.56224597568704504</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J13" s="3">
         <v>0.53747684461049172</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K13" s="3">
         <v>0.46015347659298028</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L13" s="3">
         <v>0.50752128150662024</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M13" s="3">
         <v>0.54083388598951154</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N13" s="3">
         <v>0.66919113836689537</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O13" s="3">
         <v>0.68859162414028008</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P13" s="3">
         <v>0.75448315228296858</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q13" s="3">
         <v>0.72916763888147029</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R13" s="3">
         <v>0.80609120881305973</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S13" s="3">
         <v>0.79237604781238058</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T13" s="3">
         <v>0.75823326292204996</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U13" s="3">
         <v>0.77839555556719797</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V13" s="3">
         <v>0.85235048037966699</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W13" s="3">
         <v>0.80299459483175528</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X13" s="3">
         <v>0.83520984872922455</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y13" s="3">
         <v>0.82624608706153435</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>42755</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="3">
         <v>0.36169246771306901</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="3">
         <v>0.38646300927431515</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="3">
         <v>0.38506664791812301</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="3">
         <v>0.42552044596034988</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="3">
         <v>0.37819824457426676</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="3">
         <v>0.3838899916734626</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="3">
         <v>0.45668043619350024</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="3">
         <v>0.52369098839194739</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J14" s="3">
         <v>0.43462305384637429</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K14" s="3">
         <v>0.3552387219732896</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L14" s="3">
         <v>0.48831529697573889</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M14" s="3">
         <v>0.46667440570940311</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N14" s="3">
         <v>0.67086298635499664</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O14" s="3">
         <v>0.72027884613340987</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P14" s="3">
         <v>0.75691606778156528</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q14" s="3">
         <v>0.73337590117016282</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R14" s="3">
         <v>0.82209906514295672</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S14" s="3">
         <v>0.80711301134818014</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T14" s="3">
         <v>0.76581512601463686</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U14" s="3">
         <v>0.79837532393225463</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V14" s="3">
         <v>0.84787612497429166</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W14" s="3">
         <v>0.82615705651900351</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X14" s="3">
         <v>0.8603692003263993</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y14" s="3">
         <v>0.84702512799302454</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>42762</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B15" s="3">
         <v>0.34609776206225418</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="3">
         <v>0.36070277602768536</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="3">
         <v>0.37906094638475524</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="3">
         <v>0.42461653833341151</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="3">
         <v>0.34414919047858405</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G15" s="3">
         <v>0.44404076086990663</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="3">
         <v>0.46002524554355823</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I15" s="3">
         <v>0.53899754133432276</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J15" s="3">
         <v>0.45697605674214026</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K15" s="3">
         <v>0.38343450323908396</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L15" s="3">
         <v>0.50660239476507773</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M15" s="3">
         <v>0.5443217082095354</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N15" s="3">
         <v>0.69826284167006603</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O15" s="3">
         <v>0.75910488236707974</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P15" s="3">
         <v>0.76898936110757354</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q15" s="3">
         <v>0.74517268065437381</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R15" s="3">
         <v>0.88567848968186058</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S15" s="3">
         <v>0.84859176292863669</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T15" s="3">
         <v>0.82711923647526309</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U15" s="3">
         <v>0.83301609633762408</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V15" s="3">
         <v>0.91488586295587082</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W15" s="3">
         <v>0.89009036984498302</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X15" s="3">
         <v>0.91070002479325607</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y15" s="3">
         <v>0.87311903880874109</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>42768</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="3">
         <v>0.32961717093743109</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="3">
         <v>0.39363617672163986</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="3">
         <v>0.36454522057490046</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="3">
         <v>0.39928870918183623</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="3">
         <v>0.36771408238654485</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="3">
         <v>0.46438986797930221</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="3">
         <v>0.47322966923840964</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="3">
         <v>0.5220481675229186</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J16" s="3">
         <v>0.44208067184309002</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K16" s="3">
         <v>0.44285120293762176</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L16" s="3">
         <v>0.52392441584583638</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M16" s="3">
         <v>0.53321695648208611</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N16" s="3">
         <v>0.53963069435657995</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O16" s="3">
         <v>0.61829013158931156</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P16" s="3">
         <v>0.66369428705510114</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q16" s="3">
         <v>0.6470160699759715</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R16" s="3">
         <v>0.81978446215954959</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S16" s="3">
         <v>0.77779111656688393</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T16" s="3">
         <v>0.74237603033964417</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U16" s="3">
         <v>0.75915387348233432</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V16" s="3">
         <v>0.89364591633160273</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W16" s="3">
         <v>0.87477022589231657</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X16" s="3">
         <v>0.87590399800033969</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y16" s="3">
         <v>0.85250746872998373</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>42775</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B17" s="3">
         <v>0.32685550772940747</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="3">
         <v>0.38491382592015316</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="3">
         <v>0.36386277857281712</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="3">
         <v>0.39942064801738775</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="3">
         <v>0.36683449706154281</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G17" s="3">
         <v>0.46924608906893833</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H17" s="3">
         <v>0.45057611181869361</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I17" s="3">
         <v>0.5296287597299485</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J17" s="3">
         <v>0.47978668790320927</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K17" s="3">
         <v>0.44617752806022604</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L17" s="3">
         <v>0.56606765966342232</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M17" s="3">
         <v>0.56748039428893526</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N17" s="3">
         <v>0.52964255282472084</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O17" s="3">
         <v>0.60653687116205024</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P17" s="3">
         <v>0.59387747205570618</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q17" s="3">
         <v>0.59375577535922031</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R17" s="3">
         <v>0.75910760251094656</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S17" s="3">
         <v>0.7217687071408283</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T17" s="3">
         <v>0.71650207370477559</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U17" s="3">
         <v>0.70564834243489649</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V17" s="3">
         <v>0.84778789328037618</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W17" s="3">
         <v>0.83391989870599448</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X17" s="3">
         <v>0.8541373526406203</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y17" s="3">
         <v>0.80196335770483795</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>42783</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="3">
         <v>0.36316586890515107</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="3">
         <v>0.43152600592542922</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="3">
         <v>0.45022864481243818</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="3">
         <v>0.43202103668767255</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="3">
         <v>0.45305304178285621</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="3">
         <v>0.53769827307228157</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="3">
         <v>0.51313299065640994</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="3">
         <v>0.56822498646358821</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J18" s="3">
         <v>0.55933041790424587</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K18" s="3">
         <v>0.52970286595518079</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L18" s="3">
         <v>0.65495013628274534</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M18" s="3">
         <v>0.63444642007695262</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N18" s="3">
         <v>0.56385720776426707</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O18" s="3">
         <v>0.63761545999004154</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P18" s="3">
         <v>0.67061129732414915</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q18" s="3">
         <v>0.63643402074965549</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R18" s="3">
         <v>0.80416762748635617</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S18" s="3">
         <v>0.7307678513724577</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T18" s="3">
         <v>0.75007640874424519</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U18" s="3">
         <v>0.71944760957298237</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V18" s="3">
         <v>0.90620664855014199</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W18" s="3">
         <v>0.90274189288183049</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X18" s="3">
         <v>0.87199819926215083</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y18" s="3">
         <v>0.867431356262655</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>42788</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B19" s="3">
         <v>0.34386459614760584</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="3">
         <v>0.4187068342433356</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="3">
         <v>0.42292813169605448</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="3">
         <v>0.43715558897451451</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="3">
         <v>0.42706061195485973</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G19" s="3">
         <v>0.53379945078193569</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="3">
         <v>0.50852240836926099</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I19" s="3">
         <v>0.59448850997582592</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J19" s="3">
         <v>0.54120152869719573</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K19" s="3">
         <v>0.53325825182562314</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L19" s="3">
         <v>0.68442149037385336</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M19" s="3">
         <v>0.64637235458968489</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N19" s="3">
         <v>0.62776521901083071</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O19" s="3">
         <v>0.67056505579377812</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P19" s="3">
         <v>0.72411751183849526</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q19" s="3">
         <v>0.6873969075054247</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R19" s="3">
         <v>0.82716989061788793</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S19" s="3">
         <v>0.77579720184282297</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T19" s="3">
         <v>0.78662834290987504</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U19" s="3">
         <v>0.75163628280342809</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V19" s="3">
         <v>0.92216041223071987</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W19" s="3">
         <v>0.9149817148284809</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X19" s="3">
         <v>0.92062292552221403</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y19" s="3">
         <v>0.8802032741086615</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>42797</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B20" s="3">
         <v>0.36119405098867929</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="3">
         <v>0.44018981192183082</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="3">
         <v>0.46009915208296098</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="3">
         <v>0.43944049608620572</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="3">
         <v>0.44673018501896994</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="3">
         <v>0.53058254631080382</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="3">
         <v>0.49838476033245604</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="3">
         <v>0.57625553691131026</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="3">
         <v>0.60320203038598363</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K20" s="3">
         <v>0.58489236206574691</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L20" s="3">
         <v>0.7036853783230067</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M20" s="3">
         <v>0.68047585157827717</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N20" s="3">
         <v>0.67360506395506681</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O20" s="3">
         <v>0.71504792063658518</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P20" s="3">
         <v>0.75378394506867408</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q20" s="3">
         <v>0.71543745026095096</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R20" s="3">
         <v>0.82972846334198436</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S20" s="3">
         <v>0.80400977779247396</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T20" s="3">
         <v>0.80252451660178703</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U20" s="3">
         <v>0.78075152124983349</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V20" s="3">
         <v>0.94536551319199913</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W20" s="3">
         <v>0.93755246814674276</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X20" s="3">
         <v>0.92335333860748992</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y20" s="3">
         <v>0.90748979659529205</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>42802</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B21" s="3">
         <v>0.30714551296732717</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="3">
         <v>0.410749266811612</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="3">
         <v>0.4400429710753278</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="3">
         <v>0.40242363461686487</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="3">
         <v>0.40316163466066574</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G21" s="3">
         <v>0.48773390968773062</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="3">
         <v>0.45029587409392824</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I21" s="3">
         <v>0.5402843516957605</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J21" s="3">
         <v>0.54506321711441863</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K21" s="3">
         <v>0.56828024828015877</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L21" s="3">
         <v>0.71740900921011108</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M21" s="3">
         <v>0.66729100497036453</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N21" s="3">
         <v>0.65209509239140062</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O21" s="3">
         <v>0.70734093851515056</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P21" s="3">
         <v>0.76110051857683292</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q21" s="3">
         <v>0.71615484702483534</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R21" s="3">
         <v>0.80432080212614954</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S21" s="3">
         <v>0.79282859200158606</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T21" s="3">
         <v>0.79195286107163398</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U21" s="3">
         <v>0.7749578605169769</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V21" s="3">
         <v>0.946565617133453</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W21" s="3">
         <v>0.94136998713299924</v>
       </c>
-      <c r="X20" s="4">
+      <c r="X21" s="3">
         <v>0.92790283516079719</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Y21" s="3">
         <v>0.89990394014110409</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>42809</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B22" s="3">
         <v>0.34608056164516937</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="3">
         <v>0.42784326347586776</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="3">
         <v>0.48306462971849951</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="3">
         <v>0.46528015105225606</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="3">
         <v>0.46809897059337219</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="3">
         <v>0.50417236519410202</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="3">
         <v>0.46371898088502345</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="3">
         <v>0.55658424392847616</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J22" s="3">
         <v>0.63826118599623938</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K22" s="3">
         <v>0.60667462586099041</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L22" s="3">
         <v>0.73574629929303981</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M22" s="3">
         <v>0.69002242418481441</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N22" s="3">
         <v>0.7029395495415145</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O22" s="3">
         <v>0.74364628843618374</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P22" s="3">
         <v>0.78890897259154191</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q22" s="3">
         <v>0.75229907970740573</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R22" s="3">
         <v>0.83205185277636085</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S22" s="3">
         <v>0.82645348553327791</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T22" s="3">
         <v>0.82209179300728252</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U22" s="3">
         <v>0.79587957809072696</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V22" s="3">
         <v>0.95281581364279144</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W22" s="3">
         <v>0.93827996409620029</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X22" s="3">
         <v>0.92624117909829251</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Y22" s="3">
         <v>0.89477705015423514</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>42818</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B23" s="3">
         <v>0.33667391504428534</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C23" s="3">
         <v>0.40540184639975407</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D23" s="3">
         <v>0.48971593043213429</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="3">
         <v>0.43078709556014366</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="3">
         <v>0.45605177820591508</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G23" s="3">
         <v>0.5086819898304068</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H23" s="3">
         <v>0.42608325209530162</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I23" s="3">
         <v>0.55976371409183345</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J23" s="3">
         <v>0.69654204187041602</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K23" s="3">
         <v>0.61740764755596012</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L23" s="3">
         <v>0.75782844750163569</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M23" s="3">
         <v>0.7792904059631921</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N23" s="3">
         <v>0.73511304462305216</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O23" s="3">
         <v>0.79399812507306611</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P23" s="3">
         <v>0.78959026461253945</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q23" s="3">
         <v>0.75948982634492368</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R23" s="3">
         <v>0.83858113320257488</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S23" s="3">
         <v>0.83311958383445828</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T23" s="3">
         <v>0.81660942058109065</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U23" s="3">
         <v>0.80448621236494233</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V23" s="3">
         <v>0.94199208423238823</v>
       </c>
-      <c r="W22" s="4">
+      <c r="W23" s="3">
         <v>0.94204070568579512</v>
       </c>
-      <c r="X22" s="4">
+      <c r="X23" s="3">
         <v>0.92013823615237056</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="Y23" s="3">
         <v>0.91116366485566513</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>42825</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B24" s="3">
         <v>0.40659756356675369</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="3">
         <v>0.46537195218819766</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D24" s="3">
         <v>0.5327487995474971</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="3">
         <v>0.49183368133904987</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="3">
         <v>0.50498935364868025</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="3">
         <v>0.5613979573564033</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="3">
         <v>0.46576347420451508</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="3">
         <v>0.6032459282972954</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J24" s="3">
         <v>0.74263555416634341</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K24" s="3">
         <v>0.64568081927021215</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L24" s="3">
         <v>0.78599760550438991</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M24" s="3">
         <v>0.82082206863070106</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N24" s="3">
         <v>0.78374613107987479</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O24" s="3">
         <v>0.84412887474738318</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P24" s="3">
         <v>0.85337012812178448</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q24" s="3">
         <v>0.81926829483225139</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R24" s="3">
         <v>0.86530224679688961</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S24" s="3">
         <v>0.87040929691289282</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T24" s="3">
         <v>0.87051195580529217</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U24" s="3">
         <v>0.84070381046700893</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V24" s="3">
         <v>0.95750778875733189</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W24" s="3">
         <v>0.95096452905078832</v>
       </c>
-      <c r="X23" s="4">
+      <c r="X24" s="3">
         <v>0.93238611152444384</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Y24" s="3">
         <v>0.90038456366139574</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>42835</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B25" s="3">
         <v>0.42010769907988171</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C25" s="3">
         <v>0.48315349869783525</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="3">
         <v>0.52934006461417771</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="3">
         <v>0.51657594661500317</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="3">
         <v>0.51455488332322397</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G25" s="3">
         <v>0.51603946379311816</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H25" s="3">
         <v>0.45271193992291808</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I25" s="3">
         <v>0.60975026426316681</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J25" s="3">
         <v>0.753093483127108</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K25" s="3">
         <v>0.6424344699003568</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L25" s="3">
         <v>0.79521208529259024</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M25" s="3">
         <v>0.82694472357551019</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N25" s="3">
         <v>0.81614410854089481</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O25" s="3">
         <v>0.86916317155139711</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P25" s="3">
         <v>0.86750786313477879</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q25" s="3">
         <v>0.84183754964114876</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R25" s="3">
         <v>0.87649377747861457</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S25" s="3">
         <v>0.90242975083145982</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T25" s="3">
         <v>0.90749935773420987</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U25" s="3">
         <v>0.86254385799387556</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V25" s="3">
         <v>0.95114206228266229</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W25" s="3">
         <v>0.95534740822512421</v>
       </c>
-      <c r="X24" s="4">
+      <c r="X25" s="3">
         <v>0.93837752361556692</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="Y25" s="3">
         <v>0.90868394853879109</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>42843</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B26" s="3">
         <v>0.41153414647858211</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C26" s="3">
         <v>0.44817511566197593</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D26" s="3">
         <v>0.53199703772911922</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="3">
         <v>0.50722660347928372</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="3">
         <v>0.47525935633877442</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G26" s="3">
         <v>0.51466581247654364</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H26" s="3">
         <v>0.43342859073965551</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I26" s="3">
         <v>0.57593386969388416</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J26" s="3">
         <v>0.75111726872436257</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K26" s="3">
         <v>0.63379497477234803</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L26" s="3">
         <v>0.77232745387492763</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M26" s="3">
         <v>0.80420147296503386</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N26" s="3">
         <v>0.82897139114346852</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O26" s="3">
         <v>0.84008875649774717</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P26" s="3">
         <v>0.86827538882216937</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q26" s="3">
         <v>0.84746844589125392</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R26" s="3">
         <v>0.85505649198585709</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S26" s="3">
         <v>0.89637307003325684</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T26" s="3">
         <v>0.89456688693259667</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U26" s="3">
         <v>0.83531699228811185</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V26" s="3">
         <v>0.9226627822452601</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W26" s="3">
         <v>0.94883328911898313</v>
       </c>
-      <c r="X25" s="4">
+      <c r="X26" s="3">
         <v>0.8999733715295688</v>
       </c>
-      <c r="Y25" s="4">
+      <c r="Y26" s="3">
         <v>0.88207267230776798</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>42852</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B27" s="3">
         <v>0.40254377215837328</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="3">
         <v>0.40684046073038593</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D27" s="3">
         <v>0.49727001022551798</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="3">
         <v>0.45030813430466454</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="3">
         <v>0.51971331999952686</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G27" s="3">
         <v>0.45759360493559231</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H27" s="3">
         <v>0.37542231110116792</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I27" s="3">
         <v>0.55035665021656832</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J27" s="3">
         <v>0.74557552493749601</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K27" s="3">
         <v>0.61855051217797086</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L27" s="3">
         <v>0.74740076430731328</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M27" s="3">
         <v>0.79330072718781952</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N27" s="3">
         <v>0.798225793575426</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O27" s="3">
         <v>0.8329735093022671</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P27" s="3">
         <v>0.85790639838287408</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q27" s="3">
         <v>0.81318997533709125</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R27" s="3">
         <v>0.76871515773145382</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S27" s="3">
         <v>0.87393451550523482</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T27" s="3">
         <v>0.90396440667559963</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U27" s="3">
         <v>0.83558478517763102</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V27" s="3">
         <v>0.9042554265929118</v>
       </c>
-      <c r="W26" s="4">
+      <c r="W27" s="3">
         <v>0.91804251103582113</v>
       </c>
-      <c r="X26" s="4">
+      <c r="X27" s="3">
         <v>0.87458786035391545</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Y27" s="3">
         <v>0.87519237939267691</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>42857</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="3">
         <v>0.38208269735329531</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C28" s="3">
         <v>0.39516061765765348</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D28" s="3">
         <v>0.45244526738607571</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="3">
         <v>0.44755861766393568</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="3">
         <v>0.48282416145452628</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="3">
         <v>0.427837468818549</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H28" s="3">
         <v>0.35084758234351154</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I28" s="3">
         <v>0.51082711186024887</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J28" s="3">
         <v>0.7412711645533302</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K28" s="3">
         <v>0.57366113302836597</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L28" s="3">
         <v>0.74380318374269483</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M28" s="3">
         <v>0.79346783097697338</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N28" s="3">
         <v>0.8172330556584817</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O28" s="3">
         <v>0.83080195748134167</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P28" s="3">
         <v>0.84931704406447694</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q28" s="3">
         <v>0.8159355236110869</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R28" s="3">
         <v>0.79799555477846573</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S28" s="3">
         <v>0.87762482816268772</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T28" s="3">
         <v>0.89977302381749946</v>
       </c>
-      <c r="U27" s="4">
+      <c r="U28" s="3">
         <v>0.80387259162015778</v>
       </c>
-      <c r="V27" s="4">
+      <c r="V28" s="3">
         <v>0.87965511337400859</v>
       </c>
-      <c r="W27" s="4">
+      <c r="W28" s="3">
         <v>0.91858445529450361</v>
       </c>
-      <c r="X27" s="4">
+      <c r="X28" s="3">
         <v>0.85076179818277009</v>
       </c>
-      <c r="Y27" s="4">
+      <c r="Y28" s="3">
         <v>0.85774233383691068</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>42870</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B29" s="3">
         <v>0.35716222164690042</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C29" s="3">
         <v>0.37339163290251509</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D29" s="3">
         <v>0.46226725353330511</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="3">
         <v>0.41382543950309486</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F29" s="3">
         <v>0.45556415180139953</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G29" s="3">
         <v>0.39357821543536708</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H29" s="3">
         <v>0.34102869812132452</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I29" s="3">
         <v>0.48412418391310158</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J29" s="3">
         <v>0.68445757310836375</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K29" s="3">
         <v>0.55598483302116353</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L29" s="3">
         <v>0.72990233712584762</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M29" s="3">
         <v>0.78662424014806609</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N29" s="3">
         <v>0.80227999674452455</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O29" s="3">
         <v>0.80310863295278512</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P29" s="3">
         <v>0.83314005071614816</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q29" s="3">
         <v>0.79651377662298428</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R29" s="3">
         <v>0.76133461640125399</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S29" s="3">
         <v>0.87198355544764583</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T29" s="3">
         <v>0.8847778485093668</v>
       </c>
-      <c r="U28" s="4">
+      <c r="U29" s="3">
         <v>0.80142064086195808</v>
       </c>
-      <c r="V28" s="4">
+      <c r="V29" s="3">
         <v>0.85653858292670082</v>
       </c>
-      <c r="W28" s="4">
+      <c r="W29" s="3">
         <v>0.88334858471330679</v>
       </c>
-      <c r="X28" s="4">
+      <c r="X29" s="3">
         <v>0.81911387457847029</v>
       </c>
-      <c r="Y28" s="4">
+      <c r="Y29" s="3">
         <v>0.80275633889673803</v>
       </c>
     </row>
@@ -2564,1781 +2619,1814 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6">
-        <v>3</v>
-      </c>
-      <c r="I3" s="6">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6">
-        <v>2</v>
-      </c>
-      <c r="L3" s="6">
-        <v>3</v>
-      </c>
-      <c r="M3" s="6">
-        <v>4</v>
-      </c>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6">
-        <v>2</v>
-      </c>
-      <c r="P3" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>4</v>
-      </c>
-      <c r="R3" s="6">
-        <v>1</v>
-      </c>
-      <c r="S3" s="6">
-        <v>2</v>
-      </c>
-      <c r="T3" s="6">
-        <v>3</v>
-      </c>
-      <c r="U3" s="6">
-        <v>4</v>
-      </c>
-      <c r="V3" s="6">
-        <v>1</v>
-      </c>
-      <c r="W3" s="6">
-        <v>2</v>
-      </c>
-      <c r="X3" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>42718</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B5" s="5">
         <v>0.26783673893393523</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C5" s="5">
         <v>0.34047090677183117</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D5" s="5">
         <v>0.35650058276483143</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E5" s="5">
         <v>0.36207600034787613</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F5" s="5">
         <v>0.4337307552497241</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G5" s="5">
         <v>0.34353080696100546</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H5" s="5">
         <v>0.39379694245362368</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I5" s="5">
         <v>0.35907927948565033</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J5" s="5">
         <v>0.35470541706377251</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K5" s="5">
         <v>0.31545124828467558</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L5" s="5">
         <v>0.46679781730460801</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M5" s="5">
         <v>0.36543730817731063</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N5" s="5">
         <v>0.45832904066953423</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O5" s="5">
         <v>0.46064445590297698</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P5" s="5">
         <v>0.59326747051779793</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q5" s="5">
         <v>0.53247444963666646</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R5" s="5">
         <v>0.5003757985240681</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S5" s="5">
         <v>0.54577576140018369</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T5" s="5">
         <v>0.53402160936443777</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U5" s="5">
         <v>0.53233731115700333</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V5" s="5">
         <v>0.46362217238195524</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W5" s="5">
         <v>0.5192303015316343</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X5" s="5">
         <v>0.5214574915851482</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y5" s="5">
         <v>0.44011858811387122</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>42723</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B6" s="5">
         <v>0.29872854412806815</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C6" s="5">
         <v>0.41012293846552944</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D6" s="5">
         <v>0.41117939592994734</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="5">
         <v>0.41288556534749443</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F6" s="5">
         <v>0.47931823109964605</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G6" s="5">
         <v>0.40234830903516805</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H6" s="5">
         <v>0.43704899996521307</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I6" s="5">
         <v>0.38620411833098578</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J6" s="5">
         <v>0.44802199998654241</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K6" s="5">
         <v>0.35796340796846071</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L6" s="5">
         <v>0.52497664891475415</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M6" s="5">
         <v>0.39757426120294115</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N6" s="5">
         <v>0.46996813139172877</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O6" s="5">
         <v>0.44591573663541323</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P6" s="5">
         <v>0.63043166838419329</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q6" s="5">
         <v>0.54668608380577055</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R6" s="5">
         <v>0.58089960442810662</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S6" s="5">
         <v>0.48720341254495975</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T6" s="5">
         <v>0.56513610819424953</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U6" s="5">
         <v>0.52174188051032233</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V6" s="5">
         <v>0.6544908617914087</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W6" s="5">
         <v>0.50245408113180368</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X6" s="5">
         <v>0.6542049995262621</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y6" s="5">
         <v>0.48116719544556374</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>42740</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B7" s="5">
         <v>0.44318050508516738</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C7" s="5">
         <v>0.47092473113804678</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="5">
         <v>0.40473751648025064</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="5">
         <v>0.35774371320312975</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F7" s="5">
         <v>0.50154932166589883</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G7" s="5">
         <v>0.46886489264157361</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H7" s="5">
         <v>0.39461663212428488</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I7" s="5">
         <v>0.54591561647265763</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J7" s="5">
         <v>0.42192839408302324</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K7" s="5">
         <v>0.41816941615896308</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L7" s="5">
         <v>0.53827817067015471</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M7" s="5">
         <v>0.56568359118524403</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N7" s="5">
         <v>0.65219402688735162</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O7" s="5">
         <v>0.691558475338657</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P7" s="5">
         <v>0.69992022574405222</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q7" s="5">
         <v>0.7353697692807748</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R7" s="5">
         <v>0.72314183008568778</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S7" s="5">
         <v>0.71715655101919995</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T7" s="5">
         <v>0.76661693456139679</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U7" s="5">
         <v>0.69177760494022333</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V7" s="5">
         <v>0.75579174449673225</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W7" s="5">
         <v>0.69125551105923599</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X7" s="5">
         <v>0.84346005298677496</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y7" s="5">
         <v>0.76987600942292644</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>42746</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B8" s="5">
         <v>0.46085551877868908</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C8" s="5">
         <v>0.52981437621262262</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="5">
         <v>0.50781822851680658</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="5">
         <v>0.53272233602750207</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="5">
         <v>0.54463219457009227</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G8" s="5">
         <v>0.47663014329723002</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H8" s="5">
         <v>0.55285615117205167</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I8" s="5">
         <v>0.61057626083004068</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J8" s="5">
         <v>0.59956375463052747</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K8" s="5">
         <v>0.47889279784678457</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L8" s="5">
         <v>0.59686493905259941</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M8" s="5">
         <v>0.57807317318001417</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N8" s="5">
         <v>0.7290907683813399</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O8" s="5">
         <v>0.67986527592139789</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P8" s="5">
         <v>0.7597311999782852</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q8" s="5">
         <v>0.75154449334161111</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R8" s="5">
         <v>0.78013451365771203</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S8" s="5">
         <v>0.78841080353312443</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T8" s="5">
         <v>0.79014731707041785</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U8" s="5">
         <v>0.79506410817370565</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V8" s="5">
         <v>0.80814046094240299</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W8" s="5">
         <v>0.7744607834908771</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X8" s="5">
         <v>0.83363700080868708</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y8" s="5">
         <v>0.85851822080924656</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>42755</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B9" s="5">
         <v>0.46192827123396896</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C9" s="5">
         <v>0.46055334161958206</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="5">
         <v>0.10524298072989005</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="5">
         <v>0.4509727125013846</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="5">
         <v>0.46287589750545904</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="5">
         <v>0.28344230459844127</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H9" s="5">
         <v>0.53683138257947882</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9" s="5">
         <v>0.60698698152861397</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J9" s="5">
         <v>0.5512272090161503</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K9" s="5">
         <v>0.33299403569106784</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L9" s="5">
         <v>0.60409504211302012</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M9" s="5">
         <v>0.59996581288702955</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N9" s="5">
         <v>0.76571698167145463</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O9" s="5">
         <v>0.69274593348031266</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P9" s="5">
         <v>0.75686245466248459</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q9" s="5">
         <v>0.64116807597224756</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R9" s="5">
         <v>0.81329520443700432</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S9" s="5">
         <v>0.85342467913062825</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T9" s="5">
         <v>0.84006292229605273</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U9" s="5">
         <v>0.83631511061476382</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V9" s="5">
         <v>0.84219640431269682</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W9" s="5">
         <v>0.87330628733761251</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X9" s="5">
         <v>0.89623051516333629</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y9" s="5">
         <v>0.87412209986889633</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>42762</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B10" s="5">
         <v>0.38300349243306175</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C10" s="5">
         <v>0.31352941176470583</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="5">
         <v>0.36083672283556067</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="5">
         <v>0.40809248554913291</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="5">
         <v>0.44013880855986121</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="5">
         <v>0.34496800465386857</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H10" s="5">
         <v>0.34195064629847238</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="5">
         <v>0.50966608084358522</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J10" s="5">
         <v>0.42487046632124348</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K10" s="5">
         <v>0.46212121212121215</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L10" s="5">
         <v>0.61282798833819241</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M10" s="5">
         <v>0.64289888953828167</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N10" s="5">
         <v>0.74812247255921438</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O10" s="5">
         <v>0.68295520651541586</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P10" s="5">
         <v>0.76306620209059228</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q10" s="5">
         <v>0.8546612623045744</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R10" s="5">
         <v>0.92366412213740456</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S10" s="5">
         <v>0.89831493317838462</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T10" s="5">
         <v>0.82943925233644866</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U10" s="5">
         <v>0.90647058823529414</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V10" s="5">
         <v>0.95636792452830188</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W10" s="5">
         <v>0.90797903319743734</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X10" s="5">
         <v>0.94470588235294117</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y10" s="5">
         <v>0.93081395348837215</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>42768</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B11" s="5">
         <v>0.39864864864864868</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C11" s="5">
         <v>0.50722543352601157</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="5">
         <v>0.39849624060150379</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="5">
         <v>0.53245324532453253</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="5">
         <v>0.46393210749646396</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="5">
         <v>0.52586206896551724</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H11" s="5">
         <v>0.53722627737226269</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I11" s="5">
         <v>0.62585034013605445</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J11" s="5">
         <v>0.41135734072022156</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K11" s="5">
         <v>0.4838255977496484</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L11" s="5">
         <v>0.62074554294975681</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M11" s="5">
         <v>0.6797583081570997</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N11" s="5">
         <v>0.74381625441696109</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O11" s="5">
         <v>0.76548672566371678</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P11" s="5">
         <v>0.82833787465940056</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q11" s="5">
         <v>0.7882483370288248</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R11" s="5">
         <v>0.87586206896551722</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S11" s="5">
         <v>0.8741721854304636</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T11" s="5">
         <v>0.8643790849673203</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U11" s="5">
         <v>0.91643059490084988</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V11" s="5">
         <v>0.91746905089408526</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W11" s="5">
         <v>0.93530239099859358</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X11" s="5">
         <v>0.94658753709198817</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y11" s="5">
         <v>0.94377510040160639</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>42775</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B12" s="5">
         <v>0.27763923524522027</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C12" s="5">
         <v>0.38568935427574169</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="5">
         <v>0.37760416666666663</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="5">
         <v>0.35831889081455803</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="5">
         <v>0.42291666666666672</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="5">
         <v>0.4928787224859732</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H12" s="5">
         <v>0.46451612903225803</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I12" s="5">
         <v>0.42471042471042475</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J12" s="5">
         <v>0.40676496097137904</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K12" s="5">
         <v>0.44146868250539961</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L12" s="5">
         <v>0.63116123642439437</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M12" s="5">
         <v>0.50916666666666666</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N12" s="5">
         <v>0.67172593235039035</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O12" s="5">
         <v>0.6149353358364622</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P12" s="5">
         <v>0.8</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q12" s="5">
         <v>0.71206225680933855</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R12" s="5">
         <v>0.77897923875432529</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S12" s="5">
         <v>0.88985255854293144</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T12" s="5">
         <v>0.84254606365159135</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U12" s="5">
         <v>0.91816623821765209</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V12" s="5">
         <v>0.95344827586206893</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W12" s="5">
         <v>0.93925429409300376</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X12" s="5">
         <v>0.91011723838471559</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Y12" s="5">
         <v>0.95699373695198331</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>42783</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B13" s="5">
         <v>0.39444444444444449</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C13" s="5">
         <v>0.47058823529411764</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="5">
         <v>0.5</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="5">
         <v>0.47714285714285709</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F13" s="5">
         <v>0.49459459459459465</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="5">
         <v>0.53735632183908044</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H13" s="5">
         <v>0.54963680387409197</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I13" s="5">
         <v>0.59653465346534651</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J13" s="5">
         <v>0.56070640176600439</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K13" s="5">
         <v>0.52556818181818188</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L13" s="5">
         <v>0.67010309278350522</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M13" s="5">
         <v>0.71717171717171713</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N13" s="5">
         <v>0.72297297297297303</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O13" s="5">
         <v>0.74412532637075723</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P13" s="5">
         <v>0.83573487031700289</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q13" s="5">
         <v>0.80626780626780625</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R13" s="5">
         <v>0.8679775280898876</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S13" s="5">
         <v>0.83664459161147908</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T13" s="5">
         <v>0.85459183673469385</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U13" s="5">
         <v>0.88721804511278202</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V13" s="5">
         <v>0.95</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W13" s="5">
         <v>0.9496021220159151</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X13" s="5">
         <v>0.96028037383177567</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y13" s="5">
         <v>0.94044665012406947</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>42788</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="5">
         <v>0.40587044534412953</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C14" s="5">
         <v>0.41894353369763204</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="5">
         <v>0.48282630029440632</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="5">
         <v>0.52447552447552448</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="5">
         <v>0.50507099391480725</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="5">
         <v>0.56400000000000006</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="5">
         <v>0.54125113327289209</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="5">
         <v>0.62885662431941924</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J14" s="5">
         <v>0.51345962113659027</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K14" s="5">
         <v>0.56743256743256743</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L14" s="5">
         <v>0.7250755287009063</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M14" s="5">
         <v>0.72457627118644075</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N14" s="5">
         <v>0.77859778597785978</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O14" s="5">
         <v>0.73517382413087939</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P14" s="5">
         <v>0.8017578125</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q14" s="5">
         <v>0.79365079365079372</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R14" s="5">
         <v>0.88900100908173563</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S14" s="5">
         <v>0.87247706422018345</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T14" s="5">
         <v>0.90072388831437433</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U14" s="5">
         <v>0.86831275720164602</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V14" s="5">
         <v>0.95577889447236175</v>
       </c>
-      <c r="W13" s="8">
+      <c r="W14" s="5">
         <v>0.94232749742533473</v>
       </c>
-      <c r="X13" s="8">
+      <c r="X14" s="5">
         <v>0.94821092278719399</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="Y14" s="5">
         <v>0.94015444015444016</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>42797</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B15" s="5">
         <v>0.36966394187102636</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C15" s="5">
         <v>0.46071133167907363</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="5">
         <v>0.55711920529801318</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="5">
         <v>0.44399677679290894</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="5">
         <v>0.47651006711409394</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="5">
         <v>0.34928229665071775</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H15" s="5">
         <v>0.57546337157987648</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I15" s="5">
         <v>0.64898320070733861</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J15" s="5">
         <v>0.58374384236453203</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K15" s="5">
         <v>0.60313315926892952</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L15" s="5">
         <v>0.72184531886024428</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M15" s="5">
         <v>0.7153652392947103</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N15" s="5">
         <v>0.71928327645051193</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O15" s="5">
         <v>0.7667844522968198</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P15" s="5">
         <v>0.85928571428571432</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q15" s="5">
         <v>0.79722703639514725</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R15" s="5">
         <v>0.89152233363719235</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S15" s="5">
         <v>0.87245349867139055</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T15" s="5">
         <v>0.90633130962705988</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U15" s="5">
         <v>0.84672131147540985</v>
       </c>
-      <c r="V14" s="8">
+      <c r="V15" s="5">
         <v>0.97572362278244629</v>
       </c>
-      <c r="W14" s="8">
+      <c r="W15" s="5">
         <v>0.94661016949152543</v>
       </c>
-      <c r="X14" s="8">
+      <c r="X15" s="5">
         <v>0.97181895815542274</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="Y15" s="5">
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>42802</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B16" s="5">
         <v>0.30602853198343305</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C16" s="5">
         <v>0.36826640548481882</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="5">
         <v>0.35876777251184833</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="5">
         <v>0.3362873134328358</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="5">
         <v>0.56079519186315308</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="5">
         <v>0.42314990512333961</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16" s="5">
         <v>0.5192214111922141</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I16" s="5">
         <v>0.54997562164797653</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J16" s="5">
         <v>0.52346041055718473</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K16" s="5">
         <v>0.59209900047596387</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L16" s="5">
         <v>0.68819702602230481</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M16" s="5">
         <v>0.70920991117344556</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N16" s="5">
         <v>0.75898931000971814</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O16" s="5">
         <v>0.72535211267605626</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P16" s="5">
         <v>0.77994296577946765</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q16" s="5">
         <v>0.80838041431261765</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R16" s="5">
         <v>0.84718242597898752</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S16" s="5">
         <v>0.89616141732283461</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T16" s="5">
         <v>0.85065543071161054</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U16" s="5">
         <v>0.78839590443686003</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V16" s="5">
         <v>0.97855100095328884</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W16" s="5">
         <v>0.93050373134328357</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X16" s="5">
         <v>0.93352883675464327</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y16" s="5">
         <v>0.9732142857142857</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>42809</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B17" s="5">
         <v>0.29456967213114749</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C17" s="5">
         <v>0.42644715878916617</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="5">
         <v>0.48061603823685606</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="5">
         <v>0.406183368869936</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="5">
         <v>0.51074718526100304</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="5">
         <v>0.38968633705475808</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17" s="5">
         <v>0.46680828465215085</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17" s="5">
         <v>0.60010621348911308</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J17" s="5">
         <v>0.51405835543766576</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K17" s="5">
         <v>0.64890783164624399</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L17" s="5">
         <v>0.74769230769230766</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M17" s="5">
         <v>0.66906105695228324</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N17" s="5">
         <v>0.66349709455890116</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O17" s="5">
         <v>0.74259448416751783</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P17" s="5">
         <v>0.8766025641025641</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q17" s="5">
         <v>0.7425373134328358</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R17" s="5">
         <v>0.8646055437100213</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S17" s="5">
         <v>0.8642172523961662</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T17" s="5">
         <v>0.92098512057465365</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U17" s="5">
         <v>0.89378651088688266</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V17" s="5">
         <v>0.98135322322855623</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W17" s="5">
         <v>0.98106448311156602</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X17" s="5">
         <v>0.98292422625400211</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Y17" s="5">
         <v>0.97078421322398767</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>42818</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B18" s="5">
         <v>0.33657142857142852</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C18" s="5">
         <v>0.3564593301435407</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="5">
         <v>0.50058207217694994</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="5">
         <v>0.59492924528301883</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="5">
         <v>0.47356321839080462</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="5">
         <v>0.58661186142102173</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="5">
         <v>0.37612477504499098</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="5">
         <v>0.66467423789599522</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J18" s="5">
         <v>0.68630952380952381</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K18" s="5">
         <v>0.5800477897252091</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L18" s="5">
         <v>0.79099307159353349</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M18" s="5">
         <v>0.76967260195290066</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N18" s="5">
         <v>0.83727810650887569</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O18" s="5">
         <v>0.78608395629672223</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P18" s="5">
         <v>0.84988317757009346</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q18" s="5">
         <v>0.75118203309692677</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R18" s="5">
         <v>0.92453951277480684</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S18" s="5">
         <v>0.88670244484197969</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T18" s="5">
         <v>0.87944890929965558</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U18" s="5">
         <v>0.89910447761194034</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V18" s="5">
         <v>0.98755924170616116</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W18" s="5">
         <v>0.97317351598173518</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X18" s="5">
         <v>0.98266586969515834</v>
       </c>
-      <c r="Y17" s="8">
+      <c r="Y18" s="5">
         <v>0.98160919540229885</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>42825</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B19" s="5">
         <v>0.42474916387959871</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C19" s="5">
         <v>0.45064377682403434</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="5">
         <v>0.51372118551042811</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="5">
         <v>0.57363542739443873</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="5">
         <v>0.54702702702702699</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="5">
         <v>0.48354143019296258</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="5">
         <v>0.41758241758241754</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I19" s="5">
         <v>0.65763813651137593</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J19" s="5">
         <v>0.7136929460580913</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K19" s="5">
         <v>0.78777393310265276</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L19" s="5">
         <v>0.81892166836215663</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M19" s="5">
         <v>0.87054026503567794</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N19" s="5">
         <v>0.7108190091001011</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O19" s="5">
         <v>0.83316062176165806</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P19" s="5">
         <v>0.86733556298773684</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q19" s="5">
         <v>0.81442205726405092</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R19" s="5">
         <v>0.89850057670126871</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S19" s="5">
         <v>0.87130801687763715</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T19" s="5">
         <v>0.88024564994882293</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U19" s="5">
         <v>0.90715048025613665</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V19" s="5">
         <v>0.98634812286689422</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W19" s="5">
         <v>0.97438633938100316</v>
       </c>
-      <c r="X18" s="8">
+      <c r="X19" s="5">
         <v>0.98679867986798675</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="Y19" s="5">
         <v>0.97854954034729313</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>42835</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B20" s="5">
         <v>0.3189259986902423</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C20" s="5">
         <v>0.34401114206128136</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="5">
         <v>0.45574912891986064</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="5">
         <v>0.51592797783933519</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="5">
         <v>0.49573770491803282</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="5">
         <v>0.41787941787941785</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H20" s="5">
         <v>0.44266851980542044</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I20" s="5">
         <v>0.48099516240497586</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J20" s="5">
         <v>0.79216235129461166</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K20" s="5">
         <v>0.69743233865371268</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L20" s="5">
         <v>0.82694848084544259</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M20" s="5">
         <v>0.8085808580858086</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N20" s="5">
         <v>0.79958246346555328</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O20" s="5">
         <v>0.83213114754098361</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P20" s="5">
         <v>0.89561586638830892</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q20" s="5">
         <v>0.82918395573997228</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R20" s="5">
         <v>0.90443213296398894</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S20" s="5">
         <v>0.88239387613082809</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T20" s="5">
         <v>0.94440767703507611</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U20" s="5">
         <v>0.93069993069993073</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V20" s="5">
         <v>0.98683298683298681</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W20" s="5">
         <v>0.98684210526315785</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X20" s="5">
         <v>0.98955431754874656</v>
       </c>
-      <c r="Y19" s="8">
+      <c r="Y20" s="5">
         <v>0.99079552925706771</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>42843</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B21" s="5">
         <v>0.41876574307304781</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C21" s="5">
         <v>0.5083798882681565</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="5">
         <v>0.50086058519793464</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="5">
         <v>0.5749559082892417</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="5">
         <v>0.38326848249027234</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="5">
         <v>0.53333333333333333</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21" s="5">
         <v>0.40601503759398494</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I21" s="5">
         <v>0.55243445692883897</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J21" s="5">
         <v>0.73873873873873874</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K21" s="5">
         <v>0.72120200333889817</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L21" s="5">
         <v>0.78659611992945333</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M21" s="5">
         <v>0.88888888888888884</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N21" s="5">
         <v>0.76695652173913043</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O21" s="5">
         <v>0.84812286689419791</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P21" s="5">
         <v>0.88547008547008543</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q21" s="5">
         <v>0.83680555555555558</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R21" s="5">
         <v>0.90400000000000003</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S21" s="5">
         <v>0.90590405904059046</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T21" s="5">
         <v>0.91726618705035967</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U21" s="5">
         <v>0.92364990689013038</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V21" s="5">
         <v>0.98609625668449197</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W21" s="5">
         <v>0.97318611987381698</v>
       </c>
-      <c r="X20" s="8">
+      <c r="X21" s="5">
         <v>0.97570093457943929</v>
       </c>
-      <c r="Y20" s="8">
+      <c r="Y21" s="5">
         <v>0.97237569060773477</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>42852</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B22" s="5">
         <v>0.31896551724137934</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C22" s="5">
         <v>0.48723640399556045</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="5">
         <v>0.49163879598662208</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="5">
         <v>0.30033370411568405</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="5">
         <v>0.45609756097560972</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="5">
         <v>0.4370034052213394</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22" s="5">
         <v>0.37964774951076319</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I22" s="5">
         <v>0.64257425742574259</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J22" s="5">
         <v>0.81476997578692489</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K22" s="5">
         <v>0.57007125890736343</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L22" s="5">
         <v>0.68044692737430168</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M22" s="5">
         <v>0.89793814432989694</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N22" s="5">
         <v>0.77004716981132071</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O22" s="5">
         <v>0.91242603550295853</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P22" s="5">
         <v>0.90677025527192012</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q22" s="5">
         <v>0.88724373576309801</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R22" s="5">
         <v>0.90306748466257669</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S22" s="5">
         <v>0.92694610778443109</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T22" s="5">
         <v>0.9</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U22" s="5">
         <v>0.95661157024793386</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V22" s="5">
         <v>0.98860759493670891</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W22" s="5">
         <v>0.98402948402948398</v>
       </c>
-      <c r="X21" s="8">
+      <c r="X22" s="5">
         <v>0.96854663774403471</v>
       </c>
-      <c r="Y21" s="8">
+      <c r="Y22" s="5">
         <v>0.98496993987975956</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>42857</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B23" s="5">
         <v>0.4</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C23" s="5">
         <v>0.29767911200807262</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="5">
         <v>0.55337078651685401</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="5">
         <v>0.36946277097078228</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F23" s="5">
         <v>0.47179487179487178</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="5">
         <v>0.47507055503292572</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H23" s="5">
         <v>0.31458333333333333</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I23" s="5">
         <v>0.6172344689378757</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J23" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K23" s="5">
         <v>0.64672897196261681</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L23" s="5">
         <v>0.77334465195246183</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M23" s="5">
         <v>0.89288774635818335</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N23" s="5">
         <v>0.77898550724637683</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O23" s="5">
         <v>0.91786621507197286</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P23" s="5">
         <v>0.89458955223880599</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q23" s="5">
         <v>0.89822595704948649</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R23" s="5">
         <v>0.9156626506024097</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S23" s="5">
         <v>0.93300492610837438</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T23" s="5">
         <v>0.94082332761578047</v>
       </c>
-      <c r="U22" s="8">
+      <c r="U23" s="5">
         <v>0.94547224926971762</v>
       </c>
-      <c r="V22" s="8">
+      <c r="V23" s="5">
         <v>0.98596819457436857</v>
       </c>
-      <c r="W22" s="8">
+      <c r="W23" s="5">
         <v>0.98980458793542903</v>
       </c>
-      <c r="X22" s="8">
+      <c r="X23" s="5">
         <v>0.98297872340425529</v>
       </c>
-      <c r="Y22" s="8">
+      <c r="Y23" s="5">
         <v>0.98883161512027495</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>42870</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B24" s="5">
         <v>0.25690021231422511</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C24" s="5">
         <v>0.26490825688073394</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="5">
         <v>0.48938679245283023</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="5">
         <v>0.40163934426229508</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="5">
         <v>0.46097046413502107</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="5">
         <v>0.4941724941724942</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H24" s="5">
         <v>0.34474885844748859</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I24" s="5">
         <v>0.5546697038724373</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J24" s="5">
         <v>0.77071509648127123</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K24" s="5">
         <v>0.62686567164179108</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L24" s="5">
         <v>0.78046218487394958</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M24" s="5">
         <v>0.94043887147335425</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N24" s="5">
         <v>0.81506849315068497</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O24" s="5">
         <v>0.90431125131440593</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P24" s="5">
         <v>0.9341176470588235</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q24" s="5">
         <v>0.93042452830188682</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R24" s="5">
         <v>0.9238754325259515</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S24" s="5">
         <v>0.9269406392694064</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T24" s="5">
         <v>0.96868475991649272</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U24" s="5">
         <v>0.95324971493728616</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V24" s="5">
         <v>0.98372093023255813</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W24" s="5">
         <v>0.98728813559322037</v>
       </c>
-      <c r="X23" s="8">
+      <c r="X24" s="5">
         <v>0.97479954180985107</v>
       </c>
-      <c r="Y23" s="8">
+      <c r="Y24" s="5">
         <v>0.9873284054910243</v>
       </c>
     </row>
